--- a/data/trans_dic/P19C06-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.004894737673214196</v>
+        <v>0.005208961694608842</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.003331523531732826</v>
+        <v>0.004461119146688669</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.005994693637464835</v>
+        <v>0.007087886497723633</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.00203714063196225</v>
+        <v>0.002040586489204525</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.007096103313963638</v>
+        <v>0.007023168170786899</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.00705435112786481</v>
+        <v>0.007017990814555591</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.006639074860262142</v>
+        <v>0.006204125919709588</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01075846612825989</v>
+        <v>0.01040592361345743</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.008205850613161241</v>
+        <v>0.008328044528096561</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.00881994920509923</v>
+        <v>0.00843956999120667</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.00837140470308825</v>
+        <v>0.009060057465177152</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.007668541273463967</v>
+        <v>0.007069201860555074</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03155251340176476</v>
+        <v>0.0318589193255762</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03754265527881617</v>
+        <v>0.03609569957829716</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03444395680752573</v>
+        <v>0.03578722338220167</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01731270737996406</v>
+        <v>0.01886704867605743</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04261435959421431</v>
+        <v>0.04284795208196776</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04005881934289413</v>
+        <v>0.04434509837700919</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04178919461872291</v>
+        <v>0.04119798586298598</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03392736320545979</v>
+        <v>0.03334235336419934</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02892280958238919</v>
+        <v>0.02868327472340147</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03168078597962577</v>
+        <v>0.03108876162663295</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03043350999507548</v>
+        <v>0.0321548568369743</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0209399276744836</v>
+        <v>0.02054166042387635</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.006253230294071984</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.006990640969517404</v>
+        <v>0.006990640969517403</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.01157224554974715</v>
@@ -821,7 +821,7 @@
         <v>0.01222809307977111</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.005864770870393603</v>
+        <v>0.005864770870393604</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.01208691463509854</v>
@@ -833,7 +833,7 @@
         <v>0.009318383530079851</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.006466235822150538</v>
+        <v>0.006466235822150537</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003242165577316346</v>
+        <v>0.00314845927194879</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002332719389868955</v>
+        <v>0.002333963382571454</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.001934967859264745</v>
+        <v>0.001964795856141394</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.002893303856074132</v>
+        <v>0.00293532509269245</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.009054843084133211</v>
+        <v>0.01027104681025473</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.00334444895055402</v>
+        <v>0.003334065133021818</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.001829493518860274</v>
+        <v>0.001852398610963559</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.005763628710547452</v>
+        <v>0.005809584588723647</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.006858405041735987</v>
+        <v>0.007241048367367791</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.003173639616742456</v>
+        <v>0.003243632758597958</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0029640313694491</v>
+        <v>0.002732752324486111</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03170746659980057</v>
+        <v>0.02903068133122824</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02024249634226503</v>
+        <v>0.01997771715996919</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02192130383318819</v>
+        <v>0.02157835454144236</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01738334040948446</v>
+        <v>0.01669148272106959</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02883831297238765</v>
+        <v>0.03165774301467033</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05108641652671011</v>
+        <v>0.05214566379447769</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03447928912054797</v>
+        <v>0.03652773868272413</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01579296145525471</v>
+        <v>0.01524503395749474</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02256438760626997</v>
+        <v>0.02180069666695578</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02516282722476963</v>
+        <v>0.02710593031567805</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01931759463509792</v>
+        <v>0.01899129519506369</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01273254327720708</v>
+        <v>0.01262800605635106</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.006873504814570301</v>
+        <v>0.006873504814570303</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.01645669824470373</v>
@@ -980,38 +980,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.007404734668803601</v>
+        <v>0.006845951256439363</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.009636938161234575</v>
+        <v>0.009238721068143557</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007041077708181064</v>
+        <v>0.007080715260965474</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.004207388574648021</v>
+        <v>0.004580715082924445</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.008567724441363443</v>
+        <v>0.008944572826712273</v>
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.008098536776643041</v>
+        <v>0.008346175332191503</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0118227472119965</v>
+        <v>0.01147547120376062</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.005354791869559191</v>
+        <v>0.005249001800863323</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.004294370507017467</v>
+        <v>0.00426237956998293</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03302417219872016</v>
+        <v>0.03344227444704609</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03377564123310296</v>
+        <v>0.03349365712205633</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03544727945813079</v>
+        <v>0.03507621975606027</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0225504813453359</v>
+        <v>0.02736123746569341</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04763665969875994</v>
+        <v>0.04890034795951995</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05115022774800258</v>
+        <v>0.0596547630829416</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.0286531246647358</v>
+        <v>0.03002815584025104</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02944288033817228</v>
+        <v>0.02968330061092261</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03455516184865459</v>
+        <v>0.03424864250204019</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02872318767294576</v>
+        <v>0.02640656384130566</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.020249486186697</v>
+        <v>0.02005587995109338</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>0.01110554827799564</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.008983735960136614</v>
+        <v>0.008983735960136612</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.005863702054759272</v>
+        <v>0.005906499257524412</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001701183765090193</v>
+        <v>0.002036217952176142</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002404548591125261</v>
+        <v>0.003389162954838393</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.002660743511462546</v>
+        <v>0.00279166463946591</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.003347861644955548</v>
+        <v>0.003415252887111288</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.004212625340187421</v>
+        <v>0.004194917684551084</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.008394415056340627</v>
+        <v>0.008505823713364702</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.00619688657063054</v>
+        <v>0.006092921441429786</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.00664132241703317</v>
+        <v>0.006783030691163446</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.003903228853531909</v>
+        <v>0.003813639803162445</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.006436011257951972</v>
+        <v>0.006461417246543584</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.005381399168708422</v>
+        <v>0.005086312511594178</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02152588909467018</v>
+        <v>0.02084259864041797</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01212374040266736</v>
+        <v>0.01317525547455003</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01950427653360394</v>
+        <v>0.02061414025521558</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01661345034437293</v>
+        <v>0.01851987464900273</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02041423469372342</v>
+        <v>0.01971341985091226</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02058940468770855</v>
+        <v>0.02064273803384725</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02798842019132674</v>
+        <v>0.0272703037836336</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02167591261210008</v>
+        <v>0.0199752058959842</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01746145809861513</v>
+        <v>0.01776262756016014</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01277521072970232</v>
+        <v>0.01262007983381907</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0182346873716413</v>
+        <v>0.0183564776703392</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01608226478075951</v>
+        <v>0.01455624439989745</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.01829900844037189</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.006412349617232064</v>
+        <v>0.006412349617232065</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.01249496686313308</v>
@@ -1249,37 +1249,37 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.002793318620813001</v>
+        <v>0.002630480742745459</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.008530600208990158</v>
+        <v>0.007212474247108008</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.001178307594922409</v>
+        <v>0.001179591018834207</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.004555606894748589</v>
+        <v>0.004552062239762867</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.006216777741272575</v>
+        <v>0.006004971350391331</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.004004007404811819</v>
+        <v>0.003995311290923664</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01109110184149031</v>
+        <v>0.01033335984561651</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.00378144034390394</v>
+        <v>0.002984060694999143</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.005916662069162236</v>
+        <v>0.006161173096484607</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.008147546555875605</v>
+        <v>0.007225344169309256</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.008444077751285242</v>
+        <v>0.007962404699299094</v>
       </c>
     </row>
     <row r="18">
@@ -1291,37 +1291,37 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.02727852454580548</v>
+        <v>0.02600468671700036</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03856033033025685</v>
+        <v>0.03633316204582263</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0195786498622908</v>
+        <v>0.01889979444621799</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02492345254000838</v>
+        <v>0.02742175287352119</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02616774829876937</v>
+        <v>0.02401242582696766</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02327821815400881</v>
+        <v>0.02547994262172257</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0268120359255048</v>
+        <v>0.02587513162681622</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01794272909335546</v>
+        <v>0.01750818666653744</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01844533653980573</v>
+        <v>0.02004475191141742</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02412188860576982</v>
+        <v>0.0238339003108111</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02023801832030225</v>
+        <v>0.01915002568600642</v>
       </c>
     </row>
     <row r="19">
@@ -1345,7 +1345,7 @@
         <v>0.008090102932040844</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.009431430474340629</v>
+        <v>0.009431430474340627</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.008749701021207265</v>
@@ -1390,28 +1390,28 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.003830299322134961</v>
+        <v>0.004054929871805854</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.006114939304456536</v>
+        <v>0.005481088001576846</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.006796379018484346</v>
+        <v>0.006820050823216498</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.001106652741842908</v>
+        <v>0.001021484358785922</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.003222970793170524</v>
+        <v>0.003257484189503271</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.005471582786695207</v>
+        <v>0.004964766361348237</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.006328537756806499</v>
+        <v>0.0067214188582644</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.001910956802010764</v>
+        <v>0.001895656821276886</v>
       </c>
     </row>
     <row r="21">
@@ -1423,37 +1423,37 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.02395530009089291</v>
+        <v>0.0239280571397661</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03005564748221187</v>
+        <v>0.0296204254697225</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03696144838525407</v>
+        <v>0.03386697299146129</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0162621940377151</v>
+        <v>0.01682731948778114</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.02004160361910468</v>
+        <v>0.01928524422321984</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.02470702480893376</v>
+        <v>0.0244292186639288</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.006695190466520967</v>
+        <v>0.007800380300267269</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.01356773792850621</v>
+        <v>0.01353887641308454</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.01740329690111815</v>
+        <v>0.01713781003111407</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.02101678469727818</v>
+        <v>0.02139055592206069</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.01004604836647346</v>
+        <v>0.009763992383924041</v>
       </c>
     </row>
     <row r="22">
@@ -1477,7 +1477,7 @@
         <v>0.01189998297142686</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.0075428700451215</v>
+        <v>0.007542870045121499</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.01130935479979746</v>
@@ -1501,7 +1501,7 @@
         <v>0.01267972124058287</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.009306950821929907</v>
+        <v>0.009306950821929909</v>
       </c>
     </row>
     <row r="23">
@@ -1512,40 +1512,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.007278976406195643</v>
+        <v>0.007158347614060303</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.006553481727149452</v>
+        <v>0.00680551804584573</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.008014558819792699</v>
+        <v>0.008074393472869441</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.004781535019347807</v>
+        <v>0.004826258534816113</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.007745608658234987</v>
+        <v>0.0079331805990969</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01028493163832313</v>
+        <v>0.01063133294099226</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.00941304586513589</v>
+        <v>0.009413583043306036</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.008173501946453721</v>
+        <v>0.008261167639439553</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.008712991274610222</v>
+        <v>0.008478169949153246</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.009522372194949228</v>
+        <v>0.00981515830493063</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.009793231090720599</v>
+        <v>0.009863873276042394</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.007546524848102902</v>
+        <v>0.007358617782287732</v>
       </c>
     </row>
     <row r="24">
@@ -1556,40 +1556,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0163201974848359</v>
+        <v>0.01597222012219211</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01472160093621175</v>
+        <v>0.01463830163791872</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01754563899205929</v>
+        <v>0.01714223669843232</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01210133020741086</v>
+        <v>0.01133494374884952</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.01586968468588619</v>
+        <v>0.0157759998502857</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.01924707967497946</v>
+        <v>0.01920244467618279</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01810268306761477</v>
+        <v>0.01790925599535363</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.01418950836133107</v>
+        <v>0.01440643478311544</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01431529498068636</v>
+        <v>0.01432028686620566</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.01562412792004384</v>
+        <v>0.01572541765211371</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.01619651844530833</v>
+        <v>0.01615391825382322</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.01194066275907435</v>
+        <v>0.01186345549642659</v>
       </c>
     </row>
     <row r="25">
@@ -1862,40 +1862,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1891</v>
+        <v>2012</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1317</v>
+        <v>1764</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2324</v>
+        <v>2747</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1904</v>
+        <v>1884</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2074</v>
+        <v>2063</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2097</v>
+        <v>1959</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5178</v>
+        <v>5009</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5371</v>
+        <v>5451</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6080</v>
+        <v>5817</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>5889</v>
+        <v>6373</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7842</v>
+        <v>7229</v>
       </c>
     </row>
     <row r="7">
@@ -1906,40 +1906,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12189</v>
+        <v>12307</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14842</v>
+        <v>14270</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13351</v>
+        <v>13872</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9371</v>
+        <v>10212</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>11433</v>
+        <v>11496</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>11775</v>
+        <v>13035</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>13198</v>
+        <v>13011</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>16330</v>
+        <v>16049</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>18933</v>
+        <v>18776</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>21838</v>
+        <v>21429</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>21408</v>
+        <v>22619</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>21413</v>
+        <v>21006</v>
       </c>
     </row>
     <row r="8">
@@ -2042,40 +2042,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>973</v>
+        <v>945</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>927</v>
+        <v>942</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>965</v>
+        <v>979</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2839</v>
+        <v>3220</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3653</v>
+        <v>3682</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>4782</v>
+        <v>5049</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2064</v>
+        <v>2109</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2659</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="11">
@@ -2086,40 +2086,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9519</v>
+        <v>8715</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7768</v>
+        <v>7666</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6942</v>
+        <v>6833</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>8332</v>
+        <v>8001</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9619</v>
+        <v>10560</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>16016</v>
+        <v>16348</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>11501</v>
+        <v>12185</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>6600</v>
+        <v>6371</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>14301</v>
+        <v>13817</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>17544</v>
+        <v>18899</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>12561</v>
+        <v>12349</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>11424</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="12">
@@ -2222,38 +2222,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3186</v>
+        <v>2946</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5160</v>
+        <v>4947</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2853</v>
+        <v>2869</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1952</v>
+        <v>2125</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2062</v>
+        <v>2153</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>4619</v>
+        <v>4760</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>9176</v>
+        <v>8907</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2916</v>
+        <v>2859</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>2786</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="15">
@@ -2264,38 +2264,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14209</v>
+        <v>14389</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18086</v>
+        <v>17935</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14364</v>
+        <v>14213</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10460</v>
+        <v>12692</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6672</v>
+        <v>6849</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12310</v>
+        <v>14357</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>5296</v>
+        <v>5550</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>16792</v>
+        <v>16929</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>26820</v>
+        <v>26582</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>15644</v>
+        <v>14382</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>13136</v>
+        <v>13010</v>
       </c>
     </row>
     <row r="16">
@@ -2398,40 +2398,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5110</v>
+        <v>5147</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1655</v>
+        <v>1981</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2115</v>
+        <v>2981</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2915</v>
+        <v>3059</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1996</v>
+        <v>2036</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2944</v>
+        <v>2932</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5742</v>
+        <v>5818</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5185</v>
+        <v>5098</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>9747</v>
+        <v>9955</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>6525</v>
+        <v>6375</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>10063</v>
+        <v>10103</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>10399</v>
+        <v>9829</v>
       </c>
     </row>
     <row r="19">
@@ -2442,40 +2442,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18759</v>
+        <v>18163</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11793</v>
+        <v>12816</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17154</v>
+        <v>18130</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18203</v>
+        <v>20292</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>12172</v>
+        <v>11754</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>14390</v>
+        <v>14428</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>19145</v>
+        <v>18654</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>18138</v>
+        <v>16715</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>25628</v>
+        <v>26070</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>21356</v>
+        <v>21096</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>28511</v>
+        <v>28701</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>31079</v>
+        <v>28130</v>
       </c>
     </row>
     <row r="20">
@@ -2579,37 +2579,37 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>1127</v>
+        <v>1061</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3627</v>
+        <v>3067</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>601</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>4158</v>
+        <v>4016</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2232</v>
+        <v>2227</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>8801</v>
+        <v>8200</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2662</v>
+        <v>2101</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>6343</v>
+        <v>6605</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>8006</v>
+        <v>7100</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>11006</v>
+        <v>10378</v>
       </c>
     </row>
     <row r="23">
@@ -2621,37 +2621,37 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>11002</v>
+        <v>10488</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>16395</v>
+        <v>15448</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>9982</v>
+        <v>9636</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>11367</v>
+        <v>12507</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>17500</v>
+        <v>16059</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>12977</v>
+        <v>14205</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>21275</v>
+        <v>20532</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>12632</v>
+        <v>12326</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>19775</v>
+        <v>21490</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>23703</v>
+        <v>23420</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>26377</v>
+        <v>24959</v>
       </c>
     </row>
     <row r="24">
@@ -2764,28 +2764,28 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>3622</v>
+        <v>3834</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>5659</v>
+        <v>5072</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>5609</v>
+        <v>5629</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>906</v>
+        <v>836</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>3732</v>
+        <v>3772</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>6274</v>
+        <v>5693</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>6752</v>
+        <v>7171</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>1996</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="27">
@@ -2797,37 +2797,37 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>5299</v>
+        <v>5293</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7260</v>
+        <v>7155</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>8345</v>
+        <v>7647</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>15378</v>
+        <v>15912</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>18546</v>
+        <v>17846</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>20390</v>
+        <v>20161</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>5482</v>
+        <v>6386</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>15709</v>
+        <v>15676</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>19954</v>
+        <v>19650</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>22421</v>
+        <v>22820</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>10493</v>
+        <v>10199</v>
       </c>
     </row>
     <row r="28">
@@ -2930,40 +2930,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>17822</v>
+        <v>17526</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>19082</v>
+        <v>19816</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>21284</v>
+        <v>21443</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>15855</v>
+        <v>16003</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>21222</v>
+        <v>21736</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>32307</v>
+        <v>33395</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>26880</v>
+        <v>26882</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>28878</v>
+        <v>29188</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>45205</v>
+        <v>43987</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>57639</v>
+        <v>59411</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>53974</v>
+        <v>54363</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>51685</v>
+        <v>50399</v>
       </c>
     </row>
     <row r="31">
@@ -2974,40 +2974,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>39958</v>
+        <v>39106</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>42866</v>
+        <v>42624</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>46596</v>
+        <v>45525</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>40126</v>
+        <v>37584</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>43481</v>
+        <v>43224</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>60459</v>
+        <v>60319</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>51694</v>
+        <v>51142</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>50133</v>
+        <v>50900</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>74271</v>
+        <v>74297</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>94573</v>
+        <v>95186</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>89264</v>
+        <v>89029</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>81781</v>
+        <v>81252</v>
       </c>
     </row>
     <row r="32">
